--- a/docs/GanttChart1.xlsx
+++ b/docs/GanttChart1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/jbeeston_uidaho_edu/Documents/CS383/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurn3584\Documents\GitHub\Orange-Games\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE68481-C0E7-4902-B772-1E711617FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA74035-0329-4F53-B723-F483BCF0951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="1650" windowWidth="21600" windowHeight="13875" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="149">
   <si>
     <t>Total</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Integrate with events</t>
-  </si>
-  <si>
-    <t>Test (Volume, Loop)</t>
   </si>
   <si>
     <t>Final Mix &amp;Adjustments</t>
@@ -502,7 +499,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1017,6 +1014,12 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,6 +1028,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1038,31 +1073,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,35 +1082,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="69">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1162,6 +1158,426 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1192,16 +1608,166 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1213,696 +1779,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1924,9 +1800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1964,7 +1840,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2070,7 +1946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2212,7 +2088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2226,59 +2102,59 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="5.1796875" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" customWidth="1"/>
+    <col min="21" max="21" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:21">
-      <c r="C2" s="60" t="s">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="60" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="O2" s="60" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="O2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="S2" s="60" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+      <c r="S2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="62"/>
-    </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1">
+      <c r="T2" s="65"/>
+      <c r="U2" s="66"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2451,7 +2327,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2514,7 +2390,7 @@
         <v>-1300</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2577,7 +2453,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2516,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2650,11 +2526,11 @@
       </c>
       <c r="D9" s="44">
         <f t="shared" si="0"/>
-        <v>7400</v>
+        <v>9000</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>-500</v>
       </c>
       <c r="G9" s="14">
         <f>(Gantt!$C58)*100</f>
@@ -2662,11 +2538,11 @@
       </c>
       <c r="H9" s="15">
         <f>(Gantt!$D58)*100</f>
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="K9" s="14">
         <v>1000</v>
@@ -2703,7 +2579,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
@@ -2713,11 +2589,11 @@
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
-        <v>38900</v>
+        <v>40500</v>
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>1400</v>
+        <v>-200</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
@@ -2725,11 +2601,11 @@
       </c>
       <c r="H10" s="18">
         <f>SUM(H4:H9)</f>
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="I10" s="19">
         <f>SUM(I4:I9)</f>
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="K10" s="17">
         <f>SUM(K4:K9)</f>
@@ -2785,19 +2661,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="6" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="6" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
@@ -2882,7 +2758,7 @@
       <c r="BL1" s="46"/>
       <c r="BM1" s="46"/>
     </row>
-    <row r="2" spans="1:65" s="2" customFormat="1">
+    <row r="2" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -3122,20 +2998,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="15.75">
+    <row r="3" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="61">
         <v>4</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="61">
         <v>3</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
@@ -3158,20 +3034,20 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="15.75">
+    <row r="4" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="61">
         <v>5</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="61">
         <v>5</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="61">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -3198,18 +3074,18 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="15.75">
+    <row r="5" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="61">
         <v>7</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -3236,18 +3112,18 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="15.75">
+    <row r="6" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="61">
         <v>4</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
@@ -3258,18 +3134,18 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="15.75">
+    <row r="7" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="61">
         <v>10</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
@@ -3288,18 +3164,18 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="15.75">
+    <row r="8" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="61">
         <v>5</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
@@ -3318,18 +3194,18 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75">
+    <row r="9" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="61">
         <v>6</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61">
         <v>6</v>
       </c>
       <c r="F9" t="s">
@@ -3352,18 +3228,18 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="15.75">
+    <row r="10" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="61">
         <v>4</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
@@ -3422,18 +3298,18 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="15.75">
+    <row r="11" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="61">
         <v>5</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79">
+      <c r="D11" s="61"/>
+      <c r="E11" s="61">
         <v>8</v>
       </c>
       <c r="F11" t="s">
@@ -3444,7 +3320,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -3457,12 +3333,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="2" customFormat="1">
+    <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3470,7 +3346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3478,7 +3354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3486,7 +3362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3494,7 +3370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -3507,12 +3383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="2" customFormat="1">
+    <row r="19" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3520,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3528,7 +3404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3536,7 +3412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -3549,25 +3425,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" s="2" customFormat="1">
+    <row r="24" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75">
+    <row r="25" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="61">
         <v>4</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="61">
         <v>3</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
@@ -3590,20 +3466,20 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75">
+    <row r="26" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="61">
         <v>3</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="61">
         <v>3</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="61">
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -3622,20 +3498,20 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75">
+    <row r="27" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="61">
         <v>8</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="61">
         <v>9</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="61">
         <v>2</v>
       </c>
       <c r="F27" t="s">
@@ -3674,20 +3550,20 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75">
+    <row r="28" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="61">
         <v>4</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="61">
         <v>3</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="61">
         <v>3</v>
       </c>
       <c r="F28" t="s">
@@ -3710,60 +3586,60 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75">
+    <row r="29" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="61">
         <v>6</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61" t="s">
         <v>43</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
       </c>
       <c r="V29" t="str">
-        <f>($F29)</f>
+        <f t="shared" ref="V29:AA29" si="10">($F29)</f>
         <v>this week</v>
       </c>
       <c r="W29" t="str">
-        <f>($F29)</f>
+        <f t="shared" si="10"/>
         <v>this week</v>
       </c>
       <c r="X29" t="str">
-        <f>($F29)</f>
+        <f t="shared" si="10"/>
         <v>this week</v>
       </c>
       <c r="Y29" t="str">
-        <f>($F29)</f>
+        <f t="shared" si="10"/>
         <v>this week</v>
       </c>
       <c r="Z29" t="str">
-        <f>($F29)</f>
+        <f t="shared" si="10"/>
         <v>this week</v>
       </c>
       <c r="AA29" t="str">
-        <f>($F29)</f>
+        <f t="shared" si="10"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75">
+    <row r="30" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="79">
+      <c r="C30" s="61">
         <v>4</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61" t="s">
         <v>45</v>
       </c>
       <c r="F30" t="s">
@@ -3786,18 +3662,18 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75">
+    <row r="31" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="61">
         <v>5</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61">
         <v>4</v>
       </c>
       <c r="F31" t="s">
@@ -3808,133 +3684,133 @@
         <v>planned</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" ref="AA31:AD31" si="10">($F31)</f>
+        <f t="shared" ref="AA31:AD31" si="11">($F31)</f>
         <v>planned</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>planned</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>planned</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75">
+    <row r="32" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="79">
+      <c r="C32" s="61">
         <v>6</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61">
         <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
       </c>
       <c r="AE32" t="str">
-        <f t="shared" ref="AE32:AJ32" si="11">($F32)</f>
+        <f t="shared" ref="AE32:AJ32" si="12">($F32)</f>
         <v>planned</v>
       </c>
       <c r="AF32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>planned</v>
       </c>
       <c r="AG32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>planned</v>
       </c>
       <c r="AH32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>planned</v>
       </c>
       <c r="AI32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>planned</v>
       </c>
       <c r="AJ32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="15.75">
+    <row r="33" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="79">
+      <c r="C33" s="61">
         <v>5</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79">
+      <c r="D33" s="61"/>
+      <c r="E33" s="61">
         <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
       </c>
       <c r="AK33" t="str">
-        <f t="shared" ref="AK33:AP33" si="12">($F33)</f>
+        <f t="shared" ref="AK33:AP33" si="13">($F33)</f>
         <v>planned</v>
       </c>
       <c r="AL33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>planned</v>
       </c>
       <c r="AM33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>planned</v>
       </c>
       <c r="AN33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>planned</v>
       </c>
       <c r="AO33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>planned</v>
       </c>
       <c r="AP33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="15.75">
+    <row r="34" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="61">
         <v>2</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61">
         <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
       </c>
       <c r="AQ34" t="str">
-        <f t="shared" ref="AQ34:AR34" si="13">($F34)</f>
+        <f t="shared" ref="AQ34:AR34" si="14">($F34)</f>
         <v>planned</v>
       </c>
       <c r="AR34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -3944,30 +3820,30 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35">
         <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
       </c>
       <c r="AS35" t="str">
-        <f t="shared" ref="AS35:AV35" si="14">($F35)</f>
+        <f t="shared" ref="AS35:AV35" si="15">($F35)</f>
         <v>planned</v>
       </c>
       <c r="AT35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>planned</v>
       </c>
       <c r="AU35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>planned</v>
       </c>
       <c r="AV35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -3980,197 +3856,171 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:48" s="2" customFormat="1">
+    <row r="37" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="15.75">
+    <row r="38" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="E38" s="80"/>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" ref="G38:K38" si="15">($F38)</f>
+        <f t="shared" ref="G38:H38" si="16">($F38)</f>
         <v>complete</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="39" spans="1:48" ht="15.75">
+    <row r="39" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="80">
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" s="80"/>
       <c r="F39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-    </row>
-    <row r="40" spans="1:48" ht="15.75">
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+    </row>
+    <row r="40" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
       <c r="F40" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-    </row>
-    <row r="41" spans="1:48" ht="15.75">
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+    </row>
+    <row r="41" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="80">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
       <c r="F41" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-    </row>
-    <row r="42" spans="1:48" ht="15.75">
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+    </row>
+    <row r="42" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
       <c r="F42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:48" ht="15.75">
+    <row r="43" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
       <c r="F43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:48" ht="15.75">
+    <row r="44" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
       <c r="F44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:48" ht="15.75">
+    <row r="45" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
       <c r="F45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="15.75">
+    <row r="46" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="15.75">
+    <row r="47" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
       <c r="F47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:48" ht="15.75">
+    <row r="48" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
       <c r="F48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>34</v>
       </c>
@@ -4183,252 +4033,246 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="2" customFormat="1">
+    <row r="50" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="15.75">
+    <row r="51" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="78">
+      <c r="C51" s="60">
         <v>4</v>
       </c>
-      <c r="D51" s="78">
+      <c r="D51" s="60">
         <v>4</v>
       </c>
-      <c r="E51" s="78"/>
+      <c r="E51" s="60"/>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ref="G51:K51" si="16">($F51)</f>
+        <f t="shared" ref="G51:K51" si="17">($F51)</f>
         <v>complete</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>complete</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>complete</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>complete</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="15.75">
+    <row r="52" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="78">
+      <c r="C52" s="60">
         <v>3</v>
       </c>
-      <c r="D52" s="78">
+      <c r="D52" s="60">
         <v>5</v>
       </c>
-      <c r="E52" s="78"/>
+      <c r="E52" s="60"/>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" ref="L52:P52" si="17">($F52)</f>
+        <f t="shared" ref="L52:P52" si="18">($F52)</f>
         <v>complete</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>complete</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>complete</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>complete</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="15.75">
+    <row r="53" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="78">
+      <c r="C53" s="60">
         <v>8</v>
       </c>
-      <c r="D53" s="78">
-        <v>4</v>
-      </c>
-      <c r="E53" s="78"/>
+      <c r="D53" s="60">
+        <v>12</v>
+      </c>
+      <c r="E53" s="60"/>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" ref="Q53:V53" si="18">($F53)</f>
-        <v>this week</v>
+        <f t="shared" ref="Q53:V53" si="19">($F53)</f>
+        <v>complete</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="18"/>
-        <v>this week</v>
+        <f t="shared" si="19"/>
+        <v>complete</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="18"/>
-        <v>this week</v>
+        <f t="shared" si="19"/>
+        <v>complete</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="18"/>
-        <v>this week</v>
+        <f t="shared" si="19"/>
+        <v>complete</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="18"/>
-        <v>this week</v>
+        <f t="shared" si="19"/>
+        <v>complete</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="18"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" ht="15.75">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="78">
+      <c r="C54" s="60">
         <v>8</v>
       </c>
-      <c r="D54" s="78">
-        <v>4</v>
-      </c>
-      <c r="E54" s="78"/>
+      <c r="D54" s="60">
+        <v>12</v>
+      </c>
+      <c r="E54" s="60"/>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" ref="W54:X54" si="19">($F54)</f>
-        <v>this week</v>
+        <f t="shared" ref="W54:X54" si="20">($F54)</f>
+        <v>complete</v>
       </c>
       <c r="X54" t="str">
-        <f t="shared" si="19"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" ht="15.75">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5</v>
       </c>
-      <c r="B55" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="78">
+      <c r="B55" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="60">
         <v>6</v>
       </c>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" ref="Y55:AD55" si="20">($F55)</f>
-        <v>planned</v>
+        <f t="shared" ref="Y55:AD55" si="21">($F55)</f>
+        <v>this week</v>
       </c>
       <c r="Z55" t="str">
-        <f t="shared" si="20"/>
-        <v>planned</v>
+        <f t="shared" si="21"/>
+        <v>this week</v>
       </c>
       <c r="AA55" t="str">
-        <f t="shared" si="20"/>
-        <v>planned</v>
+        <f t="shared" si="21"/>
+        <v>this week</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="20"/>
-        <v>planned</v>
+        <f t="shared" si="21"/>
+        <v>this week</v>
       </c>
       <c r="AC55" t="str">
-        <f t="shared" si="20"/>
-        <v>planned</v>
+        <f t="shared" si="21"/>
+        <v>this week</v>
       </c>
       <c r="AD55" t="str">
-        <f t="shared" si="20"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="56" spans="1:36" ht="15.75">
+        <f t="shared" si="21"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6</v>
       </c>
-      <c r="B56" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="78">
+      <c r="B56" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="60">
         <v>3</v>
       </c>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" ref="AE56:AF56" si="21">($F56)</f>
-        <v>planned</v>
+        <f t="shared" ref="AE56:AF56" si="22">($F56)</f>
+        <v>this week</v>
       </c>
       <c r="AF56" t="str">
-        <f t="shared" si="21"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="57" spans="1:36" ht="15.75">
+        <f t="shared" si="22"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>7</v>
       </c>
-      <c r="B57" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="78">
+      <c r="B57" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="60">
         <v>2</v>
       </c>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
       <c r="F57" t="s">
         <v>22</v>
       </c>
       <c r="AG57" t="str">
-        <f t="shared" ref="AG57:AJ57" si="22">($F57)</f>
+        <f t="shared" ref="AG57:AJ57" si="23">($F57)</f>
         <v>planned</v>
       </c>
       <c r="AH57" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
       <c r="AI57" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
       <c r="AJ57" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>34</v>
       </c>
@@ -4438,12 +4282,12 @@
       </c>
       <c r="D58">
         <f>SUM(D51:D57)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" s="5" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="5">
         <f>SUM(C23,C36,C18,C12)</f>
@@ -4454,9 +4298,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:36" s="5" customFormat="1">
+    <row r="60" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="51">
         <f>C59*100</f>
@@ -4470,300 +4314,258 @@
       <c r="F60" s="51"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3 F14:F17 F20">
-    <cfRule type="cellIs" dxfId="80" priority="121" operator="equal">
+  <conditionalFormatting sqref="C51:E57">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="77" priority="112" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="113" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="114" operator="equal">
+  <conditionalFormatting sqref="F3:F11">
+    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="74" priority="109" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="110" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="111" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="71" priority="106" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="107" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="108" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H12 G3:BT3 K12:BT12 K5:L11 K4:BT4 P5:BT5 P6:P11 U6:BT11 G13:BT25 G26:AW26 G27:AU27 G28:S33 V28:AW28 V29:W33 AD29:AY29 V29:AA29 AY26:BT30 AZ31:BT33 Z30:AY30 AH31:AU31 Z31:AD31 AN32:AU32 Z32:AJ32 AR33:AU33 Z33:AP33">
-    <cfRule type="cellIs" dxfId="68" priority="103" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="104" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="105" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F11">
-    <cfRule type="cellIs" dxfId="65" priority="100" operator="equal">
-      <formula>$J$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="64" priority="101" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="100" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F17">
+    <cfRule type="cellIs" dxfId="62" priority="123" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="122" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="121" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F34">
-    <cfRule type="cellIs" dxfId="62" priority="91" operator="equal">
+  <conditionalFormatting sqref="F20:F22">
+    <cfRule type="cellIs" dxfId="59" priority="111" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="110" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="109" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F35">
+    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="91" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F48">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
       <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F57">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:BT3 K4:BT4 G4:H12 P5:BT5 K5:L11 P6:P11 U6:BT11 K12:BT12 G13:BT25 G26:AW26 AY26:BT30 G27:AU27 V28:AW28 G28:S33 V29:AA29 AD29:AY29 V29:W33 Z30:AY30 Z31:AD31 AH31:AU31 AZ31:BT33 Z32:AJ32 AN32:AU32 Z33:AP33 AR33:AU33">
+    <cfRule type="cellIs" dxfId="47" priority="105" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="104" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:BT3 K4:BT4 U6:BT11 P5:BT5 G4:H12 K5:L11 P6:P11 K12:BT12 G13:BT25 G26:AW26 AY26:BT30 G27:AU27 V28:AW28 G28:S33 V29:AA29 AD29:AY29 V29:W33 Z30:AY30 Z31:AD31 AH31:AU31 AZ31:BT33 Z32:AJ32 AN32:AU32 Z33:AP33 AR33:AU33">
+    <cfRule type="cellIs" dxfId="45" priority="103" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:BT46">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:BT57">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="19" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+      <formula>$I$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="cellIs" dxfId="59" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="88" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="90" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="89" operator="equal">
       <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
-      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:O4">
-    <cfRule type="cellIs" dxfId="56" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="85" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="87" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:T5">
+    <cfRule type="cellIs" dxfId="32" priority="79" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="80" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="81" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="53" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="82" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="83" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="84" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:T5">
-    <cfRule type="cellIs" dxfId="50" priority="79" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="80" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="84" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:X7">
-    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="77" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="76" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="78" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA8">
-    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="73" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="75" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="74" operator="equal">
       <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="75" operator="equal">
-      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9:AE9">
-    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="70" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="72" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="71" operator="equal">
       <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="72" operator="equal">
-      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AR10">
-    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="69" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="68" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="67" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ34:AR34">
+    <cfRule type="cellIs" dxfId="14" priority="51" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="50" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="69" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="12" priority="49" operator="equal">
+      <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS11">
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="63" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="61" operator="equal">
       <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ34:AR34">
-    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
-      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AV35">
-    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="47" operator="equal">
+      <formula>$I$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="46" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="47" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="48" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37:BT46">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F47">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="48" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AV47">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW48:AX48">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:BT57">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F57">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C57">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:E57">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$J$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$I$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4785,9 +4587,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="52"/>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -4809,375 +4611,375 @@
       <c r="S1" s="52"/>
       <c r="T1" s="52"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="52"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="84" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="84" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="84" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="84" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="84" t="s">
+      <c r="R2" s="74"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="52"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="52"/>
+      <c r="B3" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="52"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="52"/>
-      <c r="B3" s="86" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="87" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="87" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="87" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="87" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="87" t="s">
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="52"/>
+      <c r="B4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="52"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="52"/>
-      <c r="B4" s="63" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="63" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="91"/>
       <c r="T4" s="52"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="52"/>
-      <c r="B5" s="66"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="66"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="67"/>
       <c r="G5" s="68"/>
-      <c r="H5" s="66"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="67"/>
       <c r="J5" s="68"/>
       <c r="K5" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="67"/>
       <c r="M5" s="68"/>
-      <c r="N5" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
+      <c r="N5" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="92"/>
       <c r="R5" s="93"/>
       <c r="S5" s="94"/>
       <c r="T5" s="52"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="52"/>
-      <c r="B6" s="66"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="67"/>
       <c r="D6" s="68"/>
-      <c r="E6" s="66"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="67"/>
       <c r="G6" s="68"/>
-      <c r="H6" s="66"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="67"/>
       <c r="J6" s="68"/>
       <c r="K6" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="67"/>
       <c r="M6" s="68"/>
-      <c r="N6" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="73"/>
+      <c r="N6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="69"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="92"/>
       <c r="R6" s="93"/>
       <c r="S6" s="94"/>
       <c r="T6" s="52"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
-      <c r="B7" s="66"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="67"/>
       <c r="D7" s="68"/>
-      <c r="E7" s="66"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="67"/>
       <c r="G7" s="68"/>
-      <c r="H7" s="66"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="67"/>
       <c r="J7" s="68"/>
       <c r="K7" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="67"/>
       <c r="M7" s="68"/>
-      <c r="N7" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="73"/>
+      <c r="N7" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
       <c r="Q7" s="92"/>
       <c r="R7" s="93"/>
       <c r="S7" s="94"/>
       <c r="T7" s="52"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="52"/>
-      <c r="B8" s="66"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="67"/>
       <c r="D8" s="68"/>
-      <c r="E8" s="66"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="67"/>
       <c r="G8" s="68"/>
-      <c r="H8" s="66"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="67"/>
       <c r="J8" s="68"/>
       <c r="K8" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="67"/>
       <c r="M8" s="68"/>
-      <c r="N8" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="73"/>
+      <c r="N8" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="92"/>
       <c r="R8" s="93"/>
       <c r="S8" s="94"/>
       <c r="T8" s="52"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="52"/>
-      <c r="B9" s="66"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="66"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="67"/>
       <c r="G9" s="68"/>
-      <c r="H9" s="66"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="67"/>
       <c r="J9" s="68"/>
       <c r="K9" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="67"/>
       <c r="M9" s="68"/>
-      <c r="N9" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="73"/>
+      <c r="N9" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
       <c r="Q9" s="92"/>
       <c r="R9" s="93"/>
       <c r="S9" s="94"/>
       <c r="T9" s="52"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="52"/>
-      <c r="B10" s="66"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="67"/>
       <c r="D10" s="68"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="67"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="66"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
       <c r="K10" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="67"/>
       <c r="M10" s="68"/>
-      <c r="N10" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="73"/>
+      <c r="N10" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
       <c r="Q10" s="92"/>
       <c r="R10" s="93"/>
       <c r="S10" s="94"/>
       <c r="T10" s="52"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="52"/>
-      <c r="B11" s="66"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
-      <c r="E11" s="66"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="67"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="66"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
       <c r="K11" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="67"/>
       <c r="M11" s="68"/>
-      <c r="N11" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="73"/>
+      <c r="N11" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="93"/>
       <c r="S11" s="94"/>
       <c r="T11" s="52"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="52"/>
-      <c r="B12" s="66"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="67"/>
       <c r="D12" s="68"/>
-      <c r="E12" s="66"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="67"/>
       <c r="G12" s="68"/>
-      <c r="H12" s="66"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="67"/>
       <c r="J12" s="68"/>
       <c r="K12" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="67"/>
       <c r="M12" s="68"/>
-      <c r="N12" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="72"/>
-      <c r="P12" s="73"/>
+      <c r="N12" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
       <c r="Q12" s="92"/>
       <c r="R12" s="93"/>
       <c r="S12" s="94"/>
       <c r="T12" s="52"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="52"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="67"/>
       <c r="D13" s="68"/>
-      <c r="E13" s="66"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="67"/>
       <c r="G13" s="68"/>
-      <c r="H13" s="66"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="67"/>
       <c r="J13" s="68"/>
       <c r="K13" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
-      <c r="N13" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="73"/>
+      <c r="N13" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
       <c r="Q13" s="92"/>
       <c r="R13" s="93"/>
       <c r="S13" s="94"/>
       <c r="T13" s="52"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="52"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="74"/>
-      <c r="P14" s="75"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
       <c r="Q14" s="95"/>
       <c r="R14" s="96"/>
       <c r="S14" s="97"/>
       <c r="T14" s="52"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="52"/>
-      <c r="B15" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="B15" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
@@ -5189,7 +4991,7 @@
       <c r="S15" s="52"/>
       <c r="T15" s="52"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -5211,7 +5013,7 @@
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -5233,18 +5035,18 @@
       <c r="S17" s="52"/>
       <c r="T17" s="52"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
-      <c r="B18" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="B18" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
@@ -5257,26 +5059,26 @@
       <c r="S18" s="52"/>
       <c r="T18" s="52"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="52"/>
       <c r="J19" s="52"/>
@@ -5291,7 +5093,7 @@
       <c r="S19" s="52"/>
       <c r="T19" s="52"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
       <c r="C20" s="56" t="s">
@@ -5304,7 +5106,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="57" t="s">
         <v>51</v>
@@ -5324,10 +5126,10 @@
       <c r="R20" s="52"/>
       <c r="S20" s="52"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="52"/>
       <c r="B21" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5347,14 +5149,14 @@
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="52"/>
       <c r="B22" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -5372,10 +5174,10 @@
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="52"/>
       <c r="B23" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -5395,16 +5197,16 @@
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="52"/>
       <c r="B24" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
@@ -5420,10 +5222,10 @@
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="52"/>
       <c r="B25" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -5443,10 +5245,10 @@
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="52"/>
       <c r="B26" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -5466,25 +5268,19 @@
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="K13:M13"/>
@@ -5500,17 +5296,23 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q4:S14"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5524,81 +5326,81 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -5631,7 +5433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -5640,31 +5442,31 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -5673,19 +5475,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -5694,54 +5496,54 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -5750,21 +5552,21 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -5773,21 +5575,21 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -5836,12 +5638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
     </row>
   </sheetData>
@@ -5858,25 +5660,25 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="19" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="29"/>
       <c r="B1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>127</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -5924,12 +5726,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -5940,10 +5742,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -5957,10 +5759,10 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -5973,10 +5775,10 @@
       <c r="I4" s="3"/>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="33">
         <f>SUM(C2:C4)</f>
@@ -5987,12 +5789,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -6003,10 +5805,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6020,10 +5822,10 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -6036,10 +5838,10 @@
       <c r="I8" s="3"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="33">
         <f>SUM(C6:C8)</f>
@@ -6050,12 +5852,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6065,10 +5867,10 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -6082,10 +5884,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6094,14 +5896,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6110,13 +5912,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -6125,14 +5927,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33">
         <f>SUM(C10:C14)</f>
@@ -6143,12 +5945,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -6159,10 +5961,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
       <c r="B17" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -6176,10 +5978,10 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -6192,10 +5994,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="45"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="33">
         <f>SUM(C16:C18)</f>
@@ -6206,12 +6008,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -6222,10 +6024,10 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -6239,10 +6041,10 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -6255,10 +6057,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="45"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="33">
         <f>SUM(C20:C22)</f>
@@ -6269,12 +6071,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6285,10 +6087,10 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -6302,10 +6104,10 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6318,10 +6120,10 @@
       <c r="I26" s="3"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="33">
         <f>SUM(C24:C26)</f>
@@ -6332,7 +6134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
         <v>0</v>
@@ -6346,9 +6148,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6365,18 +6167,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
@@ -6391,9 +6193,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -6414,9 +6216,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6437,9 +6239,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6460,9 +6262,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6483,9 +6285,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -6506,9 +6308,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6529,10 +6331,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
